--- a/public/Purchase.xlsx
+++ b/public/Purchase.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>ลำดับ</t>
   </si>
@@ -44,10 +44,10 @@
     <t>วันที่ทำรายการ</t>
   </si>
   <si>
-    <t>รายการขาย</t>
-  </si>
-  <si>
-    <t>SO-20200516165822</t>
+    <t>รายการซื้อ</t>
+  </si>
+  <si>
+    <t>PO-20200522154516</t>
   </si>
   <si>
     <t>shr0001</t>
@@ -56,13 +56,10 @@
     <t>เสื้อเชิ๊ตแขนยาว</t>
   </si>
   <si>
-    <t>รอโอนสินค้า</t>
-  </si>
-  <si>
-    <t>16 พฤษภาคม 2563</t>
-  </si>
-  <si>
-    <t>SO-20200516170633</t>
+    <t>สำเร็จ</t>
+  </si>
+  <si>
+    <t>22 พฤษภาคม 2563</t>
   </si>
 </sst>
 </file>
@@ -418,22 +415,22 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B1" sqref="B1:J3"/>
+      <selection activeCell="B1" sqref="B1:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="2" max="2" width="6.873322" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="11.586456" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="12.76474" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="21.012726" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="12.76474" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="19.932632" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="6.873322" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="8.051605" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="13.844833" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="8.051605" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="18.557968" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -483,7 +480,7 @@
         <v>12</v>
       </c>
       <c r="G2" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H2" s="1">
         <v>1500</v>
@@ -492,35 +489,6 @@
         <v>13</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="1">
-        <v>10</v>
-      </c>
-      <c r="H3" s="1">
-        <v>3000</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
